--- a/Results/Formatted_results.xlsx
+++ b/Results/Formatted_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C0F1D-4781-BE4A-A597-F97ED6F1CDB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF360A-A7EA-F64C-801C-2C6EA7932AC0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{16834B45-BD28-DA49-B418-6EF4459FD5F0}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" activeTab="1" xr2:uid="{16834B45-BD28-DA49-B418-6EF4459FD5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggregated data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="212">
   <si>
     <t>Friends ~ N_mistakes</t>
   </si>
@@ -43,181 +43,34 @@
     <t>upper 0.89</t>
   </si>
   <si>
-    <t>α</t>
-  </si>
-  <si>
-    <t>-0.056</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>-0.379</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>-0.004</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>ß mistakes</t>
-  </si>
-  <si>
-    <t>Friends ~ n_rounds</t>
-  </si>
-  <si>
-    <t>-0.006</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>-0.163</t>
-  </si>
-  <si>
-    <t>0.159</t>
-  </si>
-  <si>
-    <t>ß n_rounds</t>
-  </si>
-  <si>
     <t>0.051</t>
   </si>
   <si>
     <t>0.062</t>
   </si>
   <si>
-    <t>-0.047</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table X: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimates of model: condition ~ n_rounds</t>
-    </r>
-  </si>
-  <si>
     <t>0.002</t>
   </si>
   <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>-0.158</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>-0.005</t>
-  </si>
-  <si>
-    <t>0.099</t>
-  </si>
-  <si>
-    <t>-0.157</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
     <t>-0.003</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-0.166</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
-    <t>-0.153</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>-0.007</t>
-  </si>
-  <si>
-    <t>-0.171</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>-0.155</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>-0.152</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
     <t>-0.075</t>
   </si>
   <si>
     <t>0.095</t>
   </si>
   <si>
-    <t>-0.221</t>
-  </si>
-  <si>
     <t>0.081</t>
   </si>
   <si>
-    <t>0.177</t>
-  </si>
-  <si>
     <t>0.106</t>
   </si>
   <si>
     <t>0.009</t>
-  </si>
-  <si>
-    <t>0.345</t>
   </si>
   <si>
     <t>Friends ~ mistakes + n_rounds</t>
@@ -278,12 +131,603 @@
       <t>Estimates of model: condition ~ n_rounds + mistakes</t>
     </r>
   </si>
+  <si>
+    <t>WAIC</t>
+  </si>
+  <si>
+    <t>pWAIC</t>
+  </si>
+  <si>
+    <t>dWAIC</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>dSE</t>
+  </si>
+  <si>
+    <t>m_mistakes_random</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>m_mistakes</t>
+  </si>
+  <si>
+    <t>m_all</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>m_all_random</t>
+  </si>
+  <si>
+    <t>m_rounds</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>m_rounds_random</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>Model selection</t>
+  </si>
+  <si>
+    <r>
+      <t>Table X:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Model comparison of models from aggregated data analysis</t>
+    </r>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
+  <si>
+    <t>-0.081</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>-0.078</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>-0.082</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>-0.077</t>
+  </si>
+  <si>
+    <t>-0.079</t>
+  </si>
+  <si>
+    <t>ßM</t>
+  </si>
+  <si>
+    <t>ßR</t>
+  </si>
+  <si>
+    <t>0.082</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>11.088</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>2.782</t>
+  </si>
+  <si>
+    <t>11.143</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>2.807</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>11.547</t>
+  </si>
+  <si>
+    <t>1.397</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>2.008</t>
+  </si>
+  <si>
+    <t>11.674</t>
+  </si>
+  <si>
+    <t>1.455</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>2.986</t>
+  </si>
+  <si>
+    <t>2.054</t>
+  </si>
+  <si>
+    <t>13.875</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>2.788</t>
+  </si>
+  <si>
+    <t>1.543</t>
+  </si>
+  <si>
+    <t>1.734</t>
+  </si>
+  <si>
+    <t>13.972</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>2.885</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>1.505</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>-0.085</t>
+  </si>
+  <si>
+    <t>-0.083</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>-0.228</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>Full model</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.014</t>
+  </si>
+  <si>
+    <t>-0.093</t>
+  </si>
+  <si>
+    <t>-0.089</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>-0.087</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.072</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>-0.016</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>-0.068</t>
+  </si>
+  <si>
+    <t>-0.067</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>-0.063</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>-0.025</t>
+  </si>
+  <si>
+    <t>0.241</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>-0.018</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>-0.118</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.137</t>
+  </si>
+  <si>
+    <t>ßP</t>
+  </si>
+  <si>
+    <t>ßL</t>
+  </si>
+  <si>
+    <t>ßT</t>
+  </si>
+  <si>
+    <t>ßPT</t>
+  </si>
+  <si>
+    <t>ßLT</t>
+  </si>
+  <si>
+    <t>α[10]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table X: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estimates of m_full</t>
+    </r>
+  </si>
+  <si>
+    <t>m_full</t>
+  </si>
+  <si>
+    <t>130.879</t>
+  </si>
+  <si>
+    <t>4.077</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>7.82</t>
+  </si>
+  <si>
+    <t>m_linked_n_round_random</t>
+  </si>
+  <si>
+    <t>131.349</t>
+  </si>
+  <si>
+    <t>2.336</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>5.736</t>
+  </si>
+  <si>
+    <t>5.144</t>
+  </si>
+  <si>
+    <t>m_performance_round_random</t>
+  </si>
+  <si>
+    <t>132.757</t>
+  </si>
+  <si>
+    <t>3.144</t>
+  </si>
+  <si>
+    <t>1.878</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>7.011</t>
+  </si>
+  <si>
+    <t>2.547</t>
+  </si>
+  <si>
+    <t>m_linked_n_random</t>
+  </si>
+  <si>
+    <t>133.61</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>2.732</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>6.868</t>
+  </si>
+  <si>
+    <t>m_performance_round</t>
+  </si>
+  <si>
+    <t>133.764</t>
+  </si>
+  <si>
+    <t>3.136</t>
+  </si>
+  <si>
+    <t>7.088</t>
+  </si>
+  <si>
+    <t>2.528</t>
+  </si>
+  <si>
+    <t>m_performance_linked_n</t>
+  </si>
+  <si>
+    <t>134.684</t>
+  </si>
+  <si>
+    <t>1.522</t>
+  </si>
+  <si>
+    <t>3.805</t>
+  </si>
+  <si>
+    <t>0.048</t>
+  </si>
+  <si>
+    <t>3.919</t>
+  </si>
+  <si>
+    <t>6.782</t>
+  </si>
+  <si>
+    <t>m_linked_n</t>
+  </si>
+  <si>
+    <t>134.768</t>
+  </si>
+  <si>
+    <t>0.764</t>
+  </si>
+  <si>
+    <t>3.889</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>4.151</t>
+  </si>
+  <si>
+    <t>6.866</t>
+  </si>
+  <si>
+    <t>m_linked_n_round</t>
+  </si>
+  <si>
+    <t>135.455</t>
+  </si>
+  <si>
+    <t>2.157</t>
+  </si>
+  <si>
+    <t>4.576</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>5.981</t>
+  </si>
+  <si>
+    <t>5.138</t>
+  </si>
+  <si>
+    <t>m_performance_random</t>
+  </si>
+  <si>
+    <t>138.765</t>
+  </si>
+  <si>
+    <t>1.143</t>
+  </si>
+  <si>
+    <t>7.886</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>7.381</t>
+  </si>
+  <si>
+    <t>m_performance</t>
+  </si>
+  <si>
+    <t>139.716</t>
+  </si>
+  <si>
+    <t>1.047</t>
+  </si>
+  <si>
+    <t>8.837</t>
+  </si>
+  <si>
+    <t>3.101</t>
+  </si>
+  <si>
+    <t>7.36</t>
+  </si>
+  <si>
+    <t>Model Selection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table X: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Model comparison of models from long data</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,6 +786,22 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri (Základní text)_x0000_"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -450,36 +910,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -794,24 +1265,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D69F9D-4E26-2E46-8F9F-3A4E7D8441F3}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="I1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -825,360 +1308,1150 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="N7" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C24" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="24">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="24">
-      <c r="A14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="D26" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I9:O9"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01325DBC-987A-0343-9EE5-8B25564B528F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="I1" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I13:O13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>